--- a/個人ロードマップ(学習進捗)_template.1.1.0.xlsx
+++ b/個人ロードマップ(学習進捗)_template.1.1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaji hiroaki\Documents\研修課題\javaBoot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B71D9E1-0638-4D29-B597-AC07C28A769A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB4131F-0F6C-4B3F-BC35-90D8ED62EABA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="630" windowWidth="16290" windowHeight="9585" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レッスン関連" sheetId="1" r:id="rId1"/>
@@ -4907,7 +4907,7 @@
                 <c:formatCode>0.0\ "h"</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5032,7 +5032,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.1</c:v>
+                  <c:v>0.14399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5441,7 +5441,7 @@
                 <c:formatCode>0.0\ "h"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5546,7 +5546,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.3624747814391391E-2</c:v>
+                  <c:v>4.8419636852723602E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30793,11 +30793,11 @@
       </c>
       <c r="L5" s="36">
         <f>'Java カリキュラム'!N155</f>
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M5" s="53">
         <f>L5/K5</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="N5" s="43"/>
       <c r="O5" s="35" t="s">
@@ -30809,11 +30809,11 @@
       </c>
       <c r="Q5" s="36">
         <f>SUM(L5:L8)</f>
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="R5" s="53">
         <f>Q5/P5</f>
-        <v>3.3624747814391391E-2</v>
+        <v>4.8419636852723602E-2</v>
       </c>
       <c r="S5" s="42"/>
     </row>
@@ -31182,7 +31182,7 @@
       <c r="B22" s="40"/>
       <c r="C22" s="41" t="str">
         <f ca="1">TEXT(NOW(),"yyyy年MM月dd日 現在")</f>
-        <v>2021年05月08日 現在</v>
+        <v>2021年05月25日 現在</v>
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
@@ -31894,7 +31894,7 @@
       <c r="B22" s="40"/>
       <c r="C22" s="41" t="str">
         <f ca="1">TEXT(NOW(),"yyyy年MM月dd日 現在")</f>
-        <v>2021年05月08日 現在</v>
+        <v>2021年05月25日 現在</v>
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
@@ -53044,10 +53044,10 @@
   <dimension ref="A1:W156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="G37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="L46" sqref="L46"/>
+      <selection pane="bottomRight" activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -54692,18 +54692,20 @@
         <f>'LESSONS (Java)'!J34</f>
         <v>IDE の Quick Fix を使う</v>
       </c>
-      <c r="K31" s="51"/>
+      <c r="K31" s="51">
+        <v>44326</v>
+      </c>
       <c r="L31" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K34,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M31" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N31" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N31" s="31">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P31" s="24"/>
       <c r="Q31" s="25" t="s">
@@ -54749,18 +54751,20 @@
         <f>'LESSONS (Java)'!J35</f>
         <v>⌨ ショートカットキーで IDE を操作する</v>
       </c>
-      <c r="K32" s="51"/>
+      <c r="K32" s="51">
+        <v>44328</v>
+      </c>
       <c r="L32" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K35,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M32" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N32" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N32" s="31">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P32" s="24"/>
       <c r="Q32" s="25" t="s">
@@ -54806,18 +54810,20 @@
         <f>'LESSONS (Java)'!J36</f>
         <v>⌨ 1. 基本的なショートカットキー</v>
       </c>
-      <c r="K33" s="51"/>
+      <c r="K33" s="51">
+        <v>44328</v>
+      </c>
       <c r="L33" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K36,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M33" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N33" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N33" s="31">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P33" s="24"/>
       <c r="Q33" s="25" t="s">
@@ -54863,18 +54869,20 @@
         <f>'LESSONS (Java)'!J37</f>
         <v>⌨ 2. ショートカットキーリスト</v>
       </c>
-      <c r="K34" s="51"/>
+      <c r="K34" s="51">
+        <v>44328</v>
+      </c>
       <c r="L34" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K37,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M34" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N34" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N34" s="31">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P34" s="24"/>
       <c r="Q34" s="25" t="s">
@@ -54920,18 +54928,20 @@
         <f>'LESSONS (Java)'!J38</f>
         <v>文字列操作</v>
       </c>
-      <c r="K35" s="51"/>
+      <c r="K35" s="51">
+        <v>44332</v>
+      </c>
       <c r="L35" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K38,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M35" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N35" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N35" s="31">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P35" s="24"/>
       <c r="Q35" s="25" t="s">
@@ -54977,18 +54987,20 @@
         <f>'LESSONS (Java)'!J39</f>
         <v>文字列入力</v>
       </c>
-      <c r="K36" s="51"/>
+      <c r="K36" s="51">
+        <v>44338</v>
+      </c>
       <c r="L36" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K39,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M36" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N36" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N36" s="31">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P36" s="24"/>
       <c r="Q36" s="25" t="s">
@@ -55034,18 +55046,20 @@
         <f>'LESSONS (Java)'!J40</f>
         <v>Java の算術演算子</v>
       </c>
-      <c r="K37" s="51"/>
+      <c r="K37" s="51">
+        <v>44338</v>
+      </c>
       <c r="L37" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K40,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M37" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N37" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N37" s="31">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P37" s="24"/>
       <c r="Q37" s="25" t="s">
@@ -55091,18 +55105,20 @@
         <f>'LESSONS (Java)'!J41</f>
         <v>Java の代入演算子</v>
       </c>
-      <c r="K38" s="51"/>
+      <c r="K38" s="51">
+        <v>44338</v>
+      </c>
       <c r="L38" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K41,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M38" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N38" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N38" s="31">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P38" s="24"/>
       <c r="Q38" s="25" t="s">
@@ -55148,18 +55164,20 @@
         <f>'LESSONS (Java)'!J42</f>
         <v>Java の関係演算子</v>
       </c>
-      <c r="K39" s="51"/>
+      <c r="K39" s="51">
+        <v>44338</v>
+      </c>
       <c r="L39" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K42,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M39" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N39" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N39" s="31">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P39" s="24"/>
       <c r="Q39" s="25" t="s">
@@ -55205,18 +55223,20 @@
         <f>'LESSONS (Java)'!J43</f>
         <v>Java の論理演算子</v>
       </c>
-      <c r="K40" s="51"/>
+      <c r="K40" s="51">
+        <v>44338</v>
+      </c>
       <c r="L40" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K43,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M40" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N40" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N40" s="31">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P40" s="24"/>
       <c r="Q40" s="24"/>
@@ -55260,18 +55280,20 @@
         <f>'LESSONS (Java)'!J44</f>
         <v>インクリメント・デクリメント</v>
       </c>
-      <c r="K41" s="51"/>
+      <c r="K41" s="51">
+        <v>44338</v>
+      </c>
       <c r="L41" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K44,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M41" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N41" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N41" s="31">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="3:23" x14ac:dyDescent="0.4">
@@ -60520,7 +60542,7 @@
       </c>
       <c r="N155" s="31">
         <f>SUM(N6:N152)</f>
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.4">
@@ -60529,7 +60551,7 @@
       </c>
       <c r="N156" s="32">
         <f>N155/N154</f>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -60675,12 +60697,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101008D4B52C4E09BE346A1B2AD8C50484576" ma:contentTypeVersion="" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="239607ba7cc035e6147fab96aefe0e2d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f9ae3101-3629-40bd-8235-75573e76ade7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6fd0e83de1463395e554646227f4817c" ns2:_="">
     <xsd:import namespace="f9ae3101-3629-40bd-8235-75573e76ade7"/>
@@ -60864,6 +60880,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -60874,15 +60896,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{140391EB-B243-42E5-8FE3-6DBFC6C76816}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E912D01-242A-4733-A655-2038F99C3758}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -60900,6 +60913,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{140391EB-B243-42E5-8FE3-6DBFC6C76816}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{550AA099-B571-453C-B640-3D478A3950F5}">
   <ds:schemaRefs>

--- a/個人ロードマップ(学習進捗)_template.1.1.0.xlsx
+++ b/個人ロードマップ(学習進捗)_template.1.1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaji hiroaki\Documents\研修課題\javaBoot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB4131F-0F6C-4B3F-BC35-90D8ED62EABA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C394A6-EB59-487F-95B6-1212272778E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="630" windowWidth="16290" windowHeight="9585" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="16860" windowHeight="9585" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レッスン関連" sheetId="1" r:id="rId1"/>
@@ -4342,7 +4342,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -4497,15 +4497,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4515,7 +4506,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4676,9 +4667,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4907,7 +4895,7 @@
                 <c:formatCode>0.0\ "h"</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5032,7 +5020,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.14399999999999999</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5441,7 +5429,7 @@
                 <c:formatCode>0.0\ "h"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5546,7 +5534,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.8419636852723602E-2</c:v>
+                  <c:v>6.7249495628782782E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30685,7 +30673,7 @@
   </sheetPr>
   <dimension ref="B1:S32"/>
   <sheetViews>
-    <sheetView topLeftCell="F6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
@@ -30793,11 +30781,11 @@
       </c>
       <c r="L5" s="36">
         <f>'Java カリキュラム'!N155</f>
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="M5" s="53">
         <f>L5/K5</f>
-        <v>0.14399999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="N5" s="43"/>
       <c r="O5" s="35" t="s">
@@ -30809,11 +30797,11 @@
       </c>
       <c r="Q5" s="36">
         <f>SUM(L5:L8)</f>
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="R5" s="53">
         <f>Q5/P5</f>
-        <v>4.8419636852723602E-2</v>
+        <v>6.7249495628782782E-2</v>
       </c>
       <c r="S5" s="42"/>
     </row>
@@ -31182,7 +31170,7 @@
       <c r="B22" s="40"/>
       <c r="C22" s="41" t="str">
         <f ca="1">TEXT(NOW(),"yyyy年MM月dd日 現在")</f>
-        <v>2021年05月25日 現在</v>
+        <v>2021年06月12日 現在</v>
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
@@ -31894,7 +31882,7 @@
       <c r="B22" s="40"/>
       <c r="C22" s="41" t="str">
         <f ca="1">TEXT(NOW(),"yyyy年MM月dd日 現在")</f>
-        <v>2021年05月25日 現在</v>
+        <v>2021年06月12日 現在</v>
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
@@ -53044,10 +53032,10 @@
   <dimension ref="A1:W156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="G37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="J49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="K36" sqref="K36"/>
+      <selection pane="bottomRight" activeCell="K49" sqref="K49:K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -53062,19 +53050,19 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>304</v>
       </c>
       <c r="K1" s="52"/>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B2" s="33" t="s">
         <v>625</v>
       </c>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="2:23" ht="36" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" ht="36" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
@@ -53107,7 +53095,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" ht="24" x14ac:dyDescent="0.4">
       <c r="B4" s="10" t="s">
         <v>20</v>
       </c>
@@ -53140,7 +53128,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B5" s="10" t="s">
         <v>19</v>
       </c>
@@ -53181,7 +53169,10 @@
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F9,レッスン関連!$C$7:$E$10,3,FALSE)</f>
@@ -53239,7 +53230,10 @@
       <c r="V6" s="24"/>
       <c r="W6" s="24"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F10,レッスン関連!$C$7:$E$10,3,FALSE)</f>
@@ -53299,7 +53293,10 @@
       <c r="V7" s="24"/>
       <c r="W7" s="24"/>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F11,レッスン関連!$C$7:$E$10,3,FALSE)</f>
@@ -53359,7 +53356,10 @@
       <c r="V8" s="24"/>
       <c r="W8" s="24"/>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F12,レッスン関連!$C$7:$E$10,3,FALSE)</f>
@@ -53419,7 +53419,10 @@
       <c r="V9" s="24"/>
       <c r="W9" s="24"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
       <c r="C10" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F13,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -53478,7 +53481,10 @@
       <c r="V10" s="24"/>
       <c r="W10" s="24"/>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
       <c r="C11" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F14,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -53537,7 +53543,10 @@
       <c r="V11" s="24"/>
       <c r="W11" s="24"/>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>7</v>
+      </c>
       <c r="C12" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F15,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -53596,7 +53605,10 @@
       <c r="V12" s="24"/>
       <c r="W12" s="24"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
       <c r="C13" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F16,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -53655,7 +53667,10 @@
       <c r="V13" s="24"/>
       <c r="W13" s="24"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>9</v>
+      </c>
       <c r="C14" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F17,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -53714,7 +53729,10 @@
       <c r="V14" s="24"/>
       <c r="W14" s="24"/>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>10</v>
+      </c>
       <c r="C15" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F18,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -53773,7 +53791,10 @@
       <c r="V15" s="24"/>
       <c r="W15" s="24"/>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>11</v>
+      </c>
       <c r="C16" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F19,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -53833,6 +53854,9 @@
       <c r="W16" s="24"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>12</v>
+      </c>
       <c r="C17" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F20,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -53892,6 +53916,9 @@
       <c r="W17" s="24"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>13</v>
+      </c>
       <c r="C18" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F21,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -53951,6 +53978,9 @@
       <c r="W18" s="24"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>14</v>
+      </c>
       <c r="C19" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F22,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -54010,6 +54040,9 @@
       <c r="W19" s="24"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>15</v>
+      </c>
       <c r="C20" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F23,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -54069,6 +54102,9 @@
       <c r="W20" s="24"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
       <c r="C21" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F24,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -54128,6 +54164,9 @@
       <c r="W21" s="24"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
       <c r="C22" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F25,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -54187,6 +54226,9 @@
       <c r="W22" s="24"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>3</v>
+      </c>
       <c r="C23" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F26,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -54246,6 +54288,9 @@
       <c r="W23" s="24"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>4</v>
+      </c>
       <c r="C24" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F27,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -54305,6 +54350,9 @@
       <c r="W24" s="24"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>5</v>
+      </c>
       <c r="C25" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F28,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -54364,6 +54412,9 @@
       <c r="W25" s="24"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>6</v>
+      </c>
       <c r="C26" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F29,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -54423,6 +54474,9 @@
       <c r="W26" s="24"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>7</v>
+      </c>
       <c r="C27" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F30,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -54482,6 +54536,9 @@
       <c r="W27" s="24"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>8</v>
+      </c>
       <c r="C28" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F31,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -54541,6 +54598,9 @@
       <c r="W28" s="24"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>9</v>
+      </c>
       <c r="C29" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F32,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -54599,8 +54659,10 @@
       <c r="V29" s="24"/>
       <c r="W29" s="24"/>
     </row>
-    <row r="30" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="54"/>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>10</v>
+      </c>
       <c r="C30" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F33,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -54659,7 +54721,10 @@
       <c r="V30" s="24"/>
       <c r="W30" s="24"/>
     </row>
-    <row r="31" spans="1:23" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>11</v>
+      </c>
       <c r="C31" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F34,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -54719,6 +54784,9 @@
       <c r="W31" s="24"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>12</v>
+      </c>
       <c r="C32" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F35,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -54777,7 +54845,10 @@
       <c r="V32" s="24"/>
       <c r="W32" s="24"/>
     </row>
-    <row r="33" spans="3:23" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <v>13</v>
+      </c>
       <c r="C33" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F36,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -54836,7 +54907,10 @@
       <c r="V33" s="24"/>
       <c r="W33" s="24"/>
     </row>
-    <row r="34" spans="3:23" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
+        <v>14</v>
+      </c>
       <c r="C34" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F37,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -54895,7 +54969,10 @@
       <c r="V34" s="24"/>
       <c r="W34" s="24"/>
     </row>
-    <row r="35" spans="3:23" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <v>15</v>
+      </c>
       <c r="C35" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F38,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -54954,7 +55031,10 @@
       <c r="V35" s="24"/>
       <c r="W35" s="24"/>
     </row>
-    <row r="36" spans="3:23" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
+        <v>16</v>
+      </c>
       <c r="C36" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F39,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -55013,7 +55093,10 @@
       <c r="V36" s="24"/>
       <c r="W36" s="24"/>
     </row>
-    <row r="37" spans="3:23" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
+        <v>17</v>
+      </c>
       <c r="C37" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F40,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -55072,7 +55155,10 @@
       <c r="V37" s="24"/>
       <c r="W37" s="24"/>
     </row>
-    <row r="38" spans="3:23" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
+        <v>18</v>
+      </c>
       <c r="C38" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F41,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -55131,7 +55217,10 @@
       <c r="V38" s="24"/>
       <c r="W38" s="24"/>
     </row>
-    <row r="39" spans="3:23" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A39" s="1">
+        <v>19</v>
+      </c>
       <c r="C39" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F42,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -55190,7 +55279,10 @@
       <c r="V39" s="24"/>
       <c r="W39" s="24"/>
     </row>
-    <row r="40" spans="3:23" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <v>20</v>
+      </c>
       <c r="C40" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F43,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -55247,7 +55339,10 @@
       <c r="V40" s="24"/>
       <c r="W40" s="24"/>
     </row>
-    <row r="41" spans="3:23" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <v>21</v>
+      </c>
       <c r="C41" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F44,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -55296,7 +55391,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="3:23" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
+        <v>22</v>
+      </c>
       <c r="C42" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F45,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -55329,21 +55427,26 @@
         <f>'LESSONS (Java)'!J45</f>
         <v>Java でのコメントの書き方</v>
       </c>
-      <c r="K42" s="51"/>
+      <c r="K42" s="51">
+        <v>44338</v>
+      </c>
       <c r="L42" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K45,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M42" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N42" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N42" s="31">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="3:23" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
+        <v>23</v>
+      </c>
       <c r="C43" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F46,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -55376,21 +55479,26 @@
         <f>'LESSONS (Java)'!J46</f>
         <v>Java での書式指定</v>
       </c>
-      <c r="K43" s="51"/>
+      <c r="K43" s="51">
+        <v>44343</v>
+      </c>
       <c r="L43" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K46,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M43" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N43" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N43" s="31">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="3:23" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
+        <v>24</v>
+      </c>
       <c r="C44" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F47,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -55423,21 +55531,26 @@
         <f>'LESSONS (Java)'!J47</f>
         <v>不要なコメントアウトを残さない</v>
       </c>
-      <c r="K44" s="51"/>
+      <c r="K44" s="51">
+        <v>44343</v>
+      </c>
       <c r="L44" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K47,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M44" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N44" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N44" s="31">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="3:23" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
+        <v>25</v>
+      </c>
       <c r="C45" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F48,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -55470,21 +55583,26 @@
         <f>'LESSONS (Java)'!J48</f>
         <v>🐽 「不吉なにおい」とは</v>
       </c>
-      <c r="K45" s="51"/>
+      <c r="K45" s="51">
+        <v>44343</v>
+      </c>
       <c r="L45" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K48,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M45" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N45" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N45" s="31">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="3:23" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
+        <v>26</v>
+      </c>
       <c r="C46" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F49,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -55517,21 +55635,26 @@
         <f>'LESSONS (Java)'!J49</f>
         <v>不吉なにおい 🐽 変数名にコメントを付ける</v>
       </c>
-      <c r="K46" s="51"/>
+      <c r="K46" s="51">
+        <v>44343</v>
+      </c>
       <c r="L46" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K49,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M46" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N46" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N46" s="31">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="3:23" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
+        <v>27</v>
+      </c>
       <c r="C47" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F50,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -55564,21 +55687,26 @@
         <f>'LESSONS (Java)'!J50</f>
         <v>Java の配列</v>
       </c>
-      <c r="K47" s="51"/>
+      <c r="K47" s="51">
+        <v>44345</v>
+      </c>
       <c r="L47" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K50,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M47" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N47" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N47" s="31">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="3:23" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
+        <v>28</v>
+      </c>
       <c r="C48" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F51,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -55611,21 +55739,26 @@
         <f>'LESSONS (Java)'!J51</f>
         <v>Java の多次元配列</v>
       </c>
-      <c r="K48" s="51"/>
+      <c r="K48" s="51">
+        <v>44345</v>
+      </c>
       <c r="L48" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K51,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M48" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N48" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N48" s="31">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
+        <v>29</v>
+      </c>
       <c r="C49" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F52,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -55658,22 +55791,26 @@
         <f>'LESSONS (Java)'!J52</f>
         <v>Java のリスト（ArrayList クラス）</v>
       </c>
-      <c r="K49" s="51"/>
+      <c r="K49" s="51">
+        <v>44351</v>
+      </c>
       <c r="L49" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K52,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M49" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N49" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N49" s="31">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="54"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
+        <v>30</v>
+      </c>
       <c r="C50" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F53,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -55706,21 +55843,26 @@
         <f>'LESSONS (Java)'!J53</f>
         <v>Java の if 文</v>
       </c>
-      <c r="K50" s="51"/>
+      <c r="K50" s="51">
+        <v>44351</v>
+      </c>
       <c r="L50" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K53,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M50" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N50" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N50" s="31">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
+        <v>31</v>
+      </c>
       <c r="C51" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F54,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -55753,21 +55895,26 @@
         <f>'LESSONS (Java)'!J54</f>
         <v>Java の三項演算子</v>
       </c>
-      <c r="K51" s="51"/>
+      <c r="K51" s="51">
+        <v>44351</v>
+      </c>
       <c r="L51" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K54,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M51" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N51" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N51" s="31">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
+        <v>32</v>
+      </c>
       <c r="C52" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F55,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -55800,21 +55947,26 @@
         <f>'LESSONS (Java)'!J55</f>
         <v>Java の for 文</v>
       </c>
-      <c r="K52" s="51"/>
+      <c r="K52" s="51">
+        <v>44351</v>
+      </c>
       <c r="L52" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K55,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M52" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N52" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N52" s="31">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A53" s="1">
+        <v>33</v>
+      </c>
       <c r="C53" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F56,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -55847,21 +55999,26 @@
         <f>'LESSONS (Java)'!J56</f>
         <v>Java の拡張 for 文</v>
       </c>
-      <c r="K53" s="51"/>
+      <c r="K53" s="51">
+        <v>44351</v>
+      </c>
       <c r="L53" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K56,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M53" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N53" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N53" s="31">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
+        <v>34</v>
+      </c>
       <c r="C54" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F57,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -55894,21 +56051,26 @@
         <f>'LESSONS (Java)'!J57</f>
         <v>Java の while 文</v>
       </c>
-      <c r="K54" s="51"/>
+      <c r="K54" s="51">
+        <v>44351</v>
+      </c>
       <c r="L54" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K57,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M54" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N54" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N54" s="31">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
+        <v>35</v>
+      </c>
       <c r="C55" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F58,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -55941,21 +56103,26 @@
         <f>'LESSONS (Java)'!J58</f>
         <v>Java の continue と break</v>
       </c>
-      <c r="K55" s="51"/>
+      <c r="K55" s="51">
+        <v>44351</v>
+      </c>
       <c r="L55" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K58,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M55" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N55" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N55" s="31">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A56" s="1">
+        <v>36</v>
+      </c>
       <c r="C56" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F59,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -56003,6 +56170,9 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A57" s="1">
+        <v>37</v>
+      </c>
       <c r="C57" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F60,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -56050,6 +56220,9 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
+        <v>38</v>
+      </c>
       <c r="C58" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F61,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -56097,6 +56270,9 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A59" s="1">
+        <v>39</v>
+      </c>
       <c r="C59" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F62,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -56144,6 +56320,9 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A60" s="1">
+        <v>40</v>
+      </c>
       <c r="C60" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F63,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -56191,6 +56370,9 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A61" s="1">
+        <v>41</v>
+      </c>
       <c r="C61" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F64,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -56238,6 +56420,9 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A62" s="1">
+        <v>42</v>
+      </c>
       <c r="C62" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F65,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -56285,6 +56470,9 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
+        <v>43</v>
+      </c>
       <c r="C63" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F66,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -56331,8 +56519,10 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="54"/>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
+        <v>44</v>
+      </c>
       <c r="C64" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F67,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -56379,7 +56569,10 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
+        <v>45</v>
+      </c>
       <c r="C65" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F68,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -56427,6 +56620,9 @@
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
+        <v>46</v>
+      </c>
       <c r="C66" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F69,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -56474,6 +56670,9 @@
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A67" s="1">
+        <v>47</v>
+      </c>
       <c r="C67" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F70,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -56521,6 +56720,9 @@
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A68" s="1">
+        <v>48</v>
+      </c>
       <c r="C68" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F71,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -56568,6 +56770,9 @@
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A69" s="1">
+        <v>49</v>
+      </c>
       <c r="C69" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F72,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -56615,6 +56820,9 @@
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A70" s="1">
+        <v>50</v>
+      </c>
       <c r="C70" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F73,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -56662,6 +56870,9 @@
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A71" s="1">
+        <v>51</v>
+      </c>
       <c r="C71" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F74,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -56709,6 +56920,9 @@
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A72" s="1">
+        <v>52</v>
+      </c>
       <c r="C72" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F75,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -56756,6 +56970,9 @@
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A73" s="1">
+        <v>53</v>
+      </c>
       <c r="C73" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F76,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -56802,8 +57019,10 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="54"/>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A74" s="1">
+        <v>54</v>
+      </c>
       <c r="C74" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F77,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -56850,7 +57069,10 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A75" s="1">
+        <v>55</v>
+      </c>
       <c r="C75" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F78,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -56898,6 +57120,9 @@
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
+        <v>1</v>
+      </c>
       <c r="C76" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F79,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -56945,6 +57170,9 @@
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A77" s="1">
+        <v>2</v>
+      </c>
       <c r="C77" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F80,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -56992,6 +57220,9 @@
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A78" s="1">
+        <v>3</v>
+      </c>
       <c r="C78" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F81,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -57039,6 +57270,9 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A79" s="1">
+        <v>4</v>
+      </c>
       <c r="C79" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F82,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -57086,6 +57320,9 @@
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A80" s="1">
+        <v>5</v>
+      </c>
       <c r="C80" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F83,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -57133,6 +57370,9 @@
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A81" s="1">
+        <v>6</v>
+      </c>
       <c r="C81" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F84,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -57180,6 +57420,9 @@
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A82" s="1">
+        <v>7</v>
+      </c>
       <c r="C82" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F85,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -57227,6 +57470,9 @@
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A83" s="1">
+        <v>8</v>
+      </c>
       <c r="C83" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F86,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -57274,6 +57520,9 @@
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A84" s="1">
+        <v>9</v>
+      </c>
       <c r="C84" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F87,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -57320,8 +57569,10 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="54"/>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A85" s="1">
+        <v>10</v>
+      </c>
       <c r="C85" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F88,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -57368,7 +57619,10 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A86" s="1">
+        <v>11</v>
+      </c>
       <c r="C86" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F89,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -57416,6 +57670,9 @@
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A87" s="1">
+        <v>12</v>
+      </c>
       <c r="C87" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F90,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -57463,6 +57720,9 @@
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A88" s="1">
+        <v>13</v>
+      </c>
       <c r="C88" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F91,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -57510,6 +57770,9 @@
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A89" s="1">
+        <v>14</v>
+      </c>
       <c r="C89" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F92,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -57557,6 +57820,9 @@
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A90" s="1">
+        <v>15</v>
+      </c>
       <c r="C90" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F93,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -57604,6 +57870,9 @@
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A91" s="1">
+        <v>16</v>
+      </c>
       <c r="C91" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F94,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -57651,6 +57920,9 @@
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A92" s="1">
+        <v>17</v>
+      </c>
       <c r="C92" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F95,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -57698,6 +57970,9 @@
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A93" s="1">
+        <v>18</v>
+      </c>
       <c r="C93" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F96,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -57745,6 +58020,9 @@
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A94" s="1">
+        <v>19</v>
+      </c>
       <c r="C94" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F97,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -57792,6 +58070,9 @@
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A95" s="1">
+        <v>20</v>
+      </c>
       <c r="C95" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F98,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -57838,8 +58119,10 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A96" s="54"/>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A96" s="1">
+        <v>21</v>
+      </c>
       <c r="C96" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F99,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -57886,7 +58169,10 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A97" s="1">
+        <v>1</v>
+      </c>
       <c r="C97" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F100,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -57934,6 +58220,9 @@
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A98" s="1">
+        <v>2</v>
+      </c>
       <c r="C98" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F101,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -57981,6 +58270,9 @@
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A99" s="1">
+        <v>3</v>
+      </c>
       <c r="C99" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F102,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -58028,6 +58320,9 @@
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A100" s="1">
+        <v>4</v>
+      </c>
       <c r="C100" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F103,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -58075,6 +58370,9 @@
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A101" s="1">
+        <v>5</v>
+      </c>
       <c r="C101" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F104,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -58122,6 +58420,9 @@
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A102" s="1">
+        <v>6</v>
+      </c>
       <c r="C102" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F105,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -58169,6 +58470,9 @@
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A103" s="1">
+        <v>7</v>
+      </c>
       <c r="C103" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F106,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -58216,6 +58520,9 @@
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A104" s="1">
+        <v>8</v>
+      </c>
       <c r="C104" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F107,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -58263,6 +58570,9 @@
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A105" s="1">
+        <v>9</v>
+      </c>
       <c r="C105" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F108,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -58310,6 +58620,9 @@
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A106" s="1">
+        <v>10</v>
+      </c>
       <c r="C106" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F109,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -58357,6 +58670,9 @@
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A107" s="1">
+        <v>11</v>
+      </c>
       <c r="C107" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F110,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -58404,6 +58720,9 @@
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A108" s="1">
+        <v>12</v>
+      </c>
       <c r="C108" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F111,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -58450,8 +58769,10 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A109" s="54"/>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A109" s="1">
+        <v>13</v>
+      </c>
       <c r="C109" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F112,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -58498,7 +58819,10 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A110" s="1">
+        <v>14</v>
+      </c>
       <c r="C110" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F113,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -58546,6 +58870,9 @@
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A111" s="1">
+        <v>15</v>
+      </c>
       <c r="C111" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F114,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -58593,6 +58920,9 @@
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A112" s="1">
+        <v>16</v>
+      </c>
       <c r="C112" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F115,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -58640,6 +58970,9 @@
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A113" s="1">
+        <v>17</v>
+      </c>
       <c r="C113" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F116,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -58687,6 +59020,9 @@
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A114" s="1">
+        <v>18</v>
+      </c>
       <c r="C114" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F117,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -58734,6 +59070,9 @@
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A115" s="1">
+        <v>19</v>
+      </c>
       <c r="C115" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F118,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -58781,6 +59120,9 @@
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A116" s="1">
+        <v>20</v>
+      </c>
       <c r="C116" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F119,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -58828,6 +59170,9 @@
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A117" s="1">
+        <v>21</v>
+      </c>
       <c r="C117" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F120,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -58874,8 +59219,10 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A118" s="54"/>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A118" s="1">
+        <v>22</v>
+      </c>
       <c r="C118" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F121,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -58922,7 +59269,10 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A119" s="1">
+        <v>1</v>
+      </c>
       <c r="C119" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F122,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -58970,6 +59320,9 @@
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A120" s="1">
+        <v>2</v>
+      </c>
       <c r="C120" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F123,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -59017,6 +59370,9 @@
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A121" s="1">
+        <v>3</v>
+      </c>
       <c r="C121" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F124,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -59064,6 +59420,9 @@
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A122" s="1">
+        <v>4</v>
+      </c>
       <c r="C122" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F125,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -59111,6 +59470,9 @@
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A123" s="1">
+        <v>5</v>
+      </c>
       <c r="C123" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F126,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -59158,6 +59520,9 @@
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A124" s="1">
+        <v>6</v>
+      </c>
       <c r="C124" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F127,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -59205,6 +59570,9 @@
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A125" s="1">
+        <v>7</v>
+      </c>
       <c r="C125" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F128,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -59252,6 +59620,9 @@
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A126" s="1">
+        <v>8</v>
+      </c>
       <c r="C126" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F129,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -59299,6 +59670,9 @@
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A127" s="1">
+        <v>9</v>
+      </c>
       <c r="C127" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F130,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -59346,6 +59720,9 @@
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A128" s="1">
+        <v>10</v>
+      </c>
       <c r="C128" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F131,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -59393,6 +59770,9 @@
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A129" s="1">
+        <v>11</v>
+      </c>
       <c r="C129" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F132,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -59440,6 +59820,9 @@
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A130" s="1">
+        <v>12</v>
+      </c>
       <c r="C130" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F133,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -59487,6 +59870,9 @@
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A131" s="1">
+        <v>13</v>
+      </c>
       <c r="C131" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F134,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -59533,8 +59919,10 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A132" s="54"/>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A132" s="1">
+        <v>14</v>
+      </c>
       <c r="C132" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F135,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -59581,7 +59969,10 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A133" s="1">
+        <v>15</v>
+      </c>
       <c r="C133" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F136,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -59629,6 +60020,9 @@
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A134" s="1">
+        <v>16</v>
+      </c>
       <c r="C134" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F137,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -59676,6 +60070,9 @@
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A135" s="1">
+        <v>17</v>
+      </c>
       <c r="C135" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F138,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -59723,6 +60120,9 @@
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A136" s="1">
+        <v>18</v>
+      </c>
       <c r="C136" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F139,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -59770,6 +60170,9 @@
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A137" s="1">
+        <v>19</v>
+      </c>
       <c r="C137" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F140,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -59817,6 +60220,9 @@
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A138" s="1">
+        <v>1</v>
+      </c>
       <c r="C138" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F141,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -59864,6 +60270,9 @@
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A139" s="1">
+        <v>2</v>
+      </c>
       <c r="C139" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F142,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -59910,8 +60319,10 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A140" s="54"/>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A140" s="1">
+        <v>3</v>
+      </c>
       <c r="C140" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F143,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -59958,7 +60369,10 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A141" s="1">
+        <v>4</v>
+      </c>
       <c r="C141" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F144,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -60006,6 +60420,9 @@
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A142" s="1">
+        <v>5</v>
+      </c>
       <c r="C142" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F145,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -60053,6 +60470,9 @@
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A143" s="1">
+        <v>6</v>
+      </c>
       <c r="C143" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F146,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -60100,6 +60520,9 @@
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A144" s="1">
+        <v>7</v>
+      </c>
       <c r="C144" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F147,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -60147,6 +60570,9 @@
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A145" s="1">
+        <v>8</v>
+      </c>
       <c r="C145" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F148,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -60194,6 +60620,9 @@
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A146" s="1">
+        <v>9</v>
+      </c>
       <c r="C146" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F149,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -60241,6 +60670,9 @@
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A147" s="1">
+        <v>10</v>
+      </c>
       <c r="C147" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F150,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -60288,6 +60720,9 @@
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A148" s="1">
+        <v>11</v>
+      </c>
       <c r="C148" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F151,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -60335,6 +60770,9 @@
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A149" s="1">
+        <v>12</v>
+      </c>
       <c r="C149" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F152,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -60381,8 +60819,10 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A150" s="54"/>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A150" s="1">
+        <v>13</v>
+      </c>
       <c r="C150" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F153,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -60429,7 +60869,10 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A151" s="1">
+        <v>14</v>
+      </c>
       <c r="C151" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F154,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -60476,8 +60919,10 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A152" s="54"/>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A152" s="1">
+        <v>15</v>
+      </c>
       <c r="C152" s="9" t="str">
         <f>VLOOKUP('LESSONS (Java)'!F155,レッスン関連!$C$7:$E$10,3,FALSE)</f>
         <v>Java 学習カリキュラム</v>
@@ -60524,7 +60969,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.4">
       <c r="L153" s="31"/>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.4">
@@ -60542,7 +60987,7 @@
       </c>
       <c r="N155" s="31">
         <f>SUM(N6:N152)</f>
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.4">
@@ -60551,7 +60996,7 @@
       </c>
       <c r="N156" s="32">
         <f>N155/N154</f>
-        <v>0.14399999999999999</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -60697,6 +61142,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101008D4B52C4E09BE346A1B2AD8C50484576" ma:contentTypeVersion="" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="239607ba7cc035e6147fab96aefe0e2d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f9ae3101-3629-40bd-8235-75573e76ade7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6fd0e83de1463395e554646227f4817c" ns2:_="">
     <xsd:import namespace="f9ae3101-3629-40bd-8235-75573e76ade7"/>
@@ -60880,12 +61331,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -60896,6 +61341,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{140391EB-B243-42E5-8FE3-6DBFC6C76816}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E912D01-242A-4733-A655-2038F99C3758}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -60913,15 +61367,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{140391EB-B243-42E5-8FE3-6DBFC6C76816}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{550AA099-B571-453C-B640-3D478A3950F5}">
   <ds:schemaRefs>

--- a/個人ロードマップ(学習進捗)_template.1.1.0.xlsx
+++ b/個人ロードマップ(学習進捗)_template.1.1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaji hiroaki\Documents\研修課題\javaBoot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C394A6-EB59-487F-95B6-1212272778E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A6160D-6731-4F7A-92CD-26E776806181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="16860" windowHeight="9585" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3450" yWindow="225" windowWidth="16860" windowHeight="9585" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レッスン関連" sheetId="1" r:id="rId1"/>
@@ -4895,7 +4895,7 @@
                 <c:formatCode>0.0\ "h"</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5020,7 +5020,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>0.24399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5429,7 +5429,7 @@
                 <c:formatCode>0.0\ "h"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5534,7 +5534,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6.7249495628782782E-2</c:v>
+                  <c:v>8.2044384667115E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30781,11 +30781,11 @@
       </c>
       <c r="L5" s="36">
         <f>'Java カリキュラム'!N155</f>
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="M5" s="53">
         <f>L5/K5</f>
-        <v>0.2</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="N5" s="43"/>
       <c r="O5" s="35" t="s">
@@ -30797,11 +30797,11 @@
       </c>
       <c r="Q5" s="36">
         <f>SUM(L5:L8)</f>
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="R5" s="53">
         <f>Q5/P5</f>
-        <v>6.7249495628782782E-2</v>
+        <v>8.2044384667115E-2</v>
       </c>
       <c r="S5" s="42"/>
     </row>
@@ -31170,7 +31170,7 @@
       <c r="B22" s="40"/>
       <c r="C22" s="41" t="str">
         <f ca="1">TEXT(NOW(),"yyyy年MM月dd日 現在")</f>
-        <v>2021年06月12日 現在</v>
+        <v>2021年06月20日 現在</v>
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
@@ -31882,7 +31882,7 @@
       <c r="B22" s="40"/>
       <c r="C22" s="41" t="str">
         <f ca="1">TEXT(NOW(),"yyyy年MM月dd日 現在")</f>
-        <v>2021年06月12日 現在</v>
+        <v>2021年06月20日 現在</v>
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
@@ -53032,10 +53032,10 @@
   <dimension ref="A1:W156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="J49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="J57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="K49" sqref="K49:K55"/>
+      <selection pane="bottomRight" activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -56155,18 +56155,20 @@
         <f>'LESSONS (Java)'!J59</f>
         <v>Java 変数のスコープ</v>
       </c>
-      <c r="K56" s="51"/>
+      <c r="K56" s="51">
+        <v>44359</v>
+      </c>
       <c r="L56" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K59,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M56" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N56" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N56" s="31">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.4">
@@ -56205,18 +56207,20 @@
         <f>'LESSONS (Java)'!J60</f>
         <v>🤔 コードレビューは成長への近道</v>
       </c>
-      <c r="K57" s="51"/>
+      <c r="K57" s="51">
+        <v>44360</v>
+      </c>
       <c r="L57" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K60,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M57" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N57" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N57" s="31">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.4">
@@ -56255,18 +56259,20 @@
         <f>'LESSONS (Java)'!J61</f>
         <v>🤔 3か月前の自分は他人</v>
       </c>
-      <c r="K58" s="51"/>
+      <c r="K58" s="51">
+        <v>44361</v>
+      </c>
       <c r="L58" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K61,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M58" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N58" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N58" s="31">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.4">
@@ -56305,18 +56311,20 @@
         <f>'LESSONS (Java)'!J62</f>
         <v>作成課題 ⭐ 数当てゲーム</v>
       </c>
-      <c r="K59" s="51"/>
+      <c r="K59" s="51">
+        <v>44362</v>
+      </c>
       <c r="L59" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K62,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="M59" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N59" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N59" s="31">
         <f t="shared" si="1"/>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.4">
@@ -56355,18 +56363,20 @@
         <f>'LESSONS (Java)'!J63</f>
         <v>Java のメソッド</v>
       </c>
-      <c r="K60" s="51"/>
+      <c r="K60" s="51">
+        <v>44367</v>
+      </c>
       <c r="L60" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K63,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M60" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N60" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N60" s="31">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.4">
@@ -56405,18 +56415,20 @@
         <f>'LESSONS (Java)'!J64</f>
         <v>再帰メソッド</v>
       </c>
-      <c r="K61" s="51"/>
+      <c r="K61" s="51">
+        <v>44367</v>
+      </c>
       <c r="L61" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K64,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M61" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N61" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N61" s="31">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.4">
@@ -56455,18 +56467,20 @@
         <f>'LESSONS (Java)'!J65</f>
         <v>Java の値渡しと参照渡し</v>
       </c>
-      <c r="K62" s="51"/>
+      <c r="K62" s="51">
+        <v>44373</v>
+      </c>
       <c r="L62" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K65,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M62" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N62" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N62" s="31">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.4">
@@ -56505,18 +56519,20 @@
         <f>'LESSONS (Java)'!J66</f>
         <v>VSCode で Java のデバッグをする</v>
       </c>
-      <c r="K63" s="51"/>
+      <c r="K63" s="51">
+        <v>44373</v>
+      </c>
       <c r="L63" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K66,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M63" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N63" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N63" s="31">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.4">
@@ -60987,7 +61003,7 @@
       </c>
       <c r="N155" s="31">
         <f>SUM(N6:N152)</f>
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.4">
@@ -60996,7 +61012,7 @@
       </c>
       <c r="N156" s="32">
         <f>N155/N154</f>
-        <v>0.2</v>
+        <v>0.24399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -61142,12 +61158,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101008D4B52C4E09BE346A1B2AD8C50484576" ma:contentTypeVersion="" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="239607ba7cc035e6147fab96aefe0e2d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f9ae3101-3629-40bd-8235-75573e76ade7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6fd0e83de1463395e554646227f4817c" ns2:_="">
     <xsd:import namespace="f9ae3101-3629-40bd-8235-75573e76ade7"/>
@@ -61331,6 +61341,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -61341,15 +61357,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{140391EB-B243-42E5-8FE3-6DBFC6C76816}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E912D01-242A-4733-A655-2038F99C3758}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -61367,6 +61374,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{140391EB-B243-42E5-8FE3-6DBFC6C76816}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{550AA099-B571-453C-B640-3D478A3950F5}">
   <ds:schemaRefs>
